--- a/uploads/students_data.xlsx
+++ b/uploads/students_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -358,16 +358,16 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.1348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,7 +389,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>17020001</v>
+        <v>44444</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>17020002</v>
+        <v>37020002</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>17020003</v>
+        <v>37020003</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
